--- a/Files/HeadCount.xlsx
+++ b/Files/HeadCount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents D\PFE\MFI\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0701B99C-8C86-4644-9B4C-C4B202D00594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E860A5A-0476-4D4E-9599-DD967CC21AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A2A8A0AF-9310-44CB-91C6-F129BD14DF08}"/>
   </bookViews>
@@ -711,15 +711,78 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{57B42705-3486-4F1A-934F-B2DE2F4873D7}"/>
-    <cellStyle name="Titre 3" xfId="1" builtinId="18"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,13 +868,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -831,234 +887,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="hair">
-          <color auto="1"/>
-        </left>
-        <right style="hair">
-          <color auto="1"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1179,7 +1007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1477,54 +1305,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A746CD5-AF09-4C81-BC3A-D4B36739DBF1}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="14" max="16" width="11.42578125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="N1" s="23" t="s">
         <v>32</v>
@@ -1537,45 +1365,45 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19">
+        <v>24567</v>
+      </c>
+      <c r="B2" s="19">
+        <v>11405</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="19">
-        <v>24567</v>
-      </c>
-      <c r="C2" s="19">
-        <v>11405</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="12">
-        <f>VLOOKUP(H2,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E2" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12">
+        <f>VLOOKUP(I2,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="25">
         <v>44806</v>
@@ -1590,45 +1418,45 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19">
+        <v>21327</v>
+      </c>
+      <c r="B3" s="19">
+        <v>10610</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="19">
-        <v>21327</v>
-      </c>
-      <c r="C3" s="19">
-        <v>10610</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12">
-        <f>VLOOKUP(H3,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E3" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="12">
+        <f>VLOOKUP(I3,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N3" s="25">
         <v>44168</v>
@@ -1643,44 +1471,44 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19">
+        <v>26121</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="19">
-        <v>26121</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12">
-        <v>71010131</v>
+      <c r="E4" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="12">
+        <v>71010131</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N4" s="18">
         <v>45045</v>
@@ -1695,44 +1523,44 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5">
-      <c r="A5" s="9" t="s">
-        <v>47</v>
+      <c r="A5" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>10</v>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
-        <v>71010131</v>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12">
+        <v>71010131</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N5" s="18">
         <v>45051</v>
@@ -1745,44 +1573,44 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10">
+        <v>11627</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="10">
-        <v>11627</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12">
-        <v>71010131</v>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="12">
+        <v>71010131</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="N6" s="18">
         <v>44964</v>
@@ -1795,44 +1623,44 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
+      <c r="A7" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>25</v>
+      <c r="C7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
-        <v>71010131</v>
+      <c r="E7" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12">
+        <v>71010131</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N7" s="18" t="s">
         <v>28</v>
@@ -1845,45 +1673,45 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="19">
+        <v>24394</v>
+      </c>
+      <c r="B8" s="19">
+        <v>11255</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="19">
-        <v>24394</v>
-      </c>
-      <c r="C8" s="19">
-        <v>11255</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12">
-        <f>VLOOKUP(H8,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E8" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="12">
+        <f>VLOOKUP(I8,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N8" s="25">
         <v>44788</v>
@@ -1898,45 +1726,45 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19">
+        <v>24394</v>
+      </c>
+      <c r="B9" s="19">
+        <v>11255</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" s="19">
-        <v>24394</v>
-      </c>
-      <c r="C9" s="19">
-        <v>11255</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12">
-        <f>VLOOKUP(H9,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="12">
+        <f>VLOOKUP(I9,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N9" s="25">
         <v>44788</v>
@@ -1951,45 +1779,45 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19">
+        <v>24567</v>
+      </c>
+      <c r="B10" s="19">
+        <v>11405</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="19">
-        <v>24567</v>
-      </c>
-      <c r="C10" s="19">
-        <v>11405</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12">
-        <f>VLOOKUP(H10,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="12">
+        <f>VLOOKUP(I10,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="N10" s="25">
         <v>44806</v>
@@ -2004,45 +1832,45 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19">
+        <v>21327</v>
+      </c>
+      <c r="B11" s="19">
+        <v>10610</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="19">
-        <v>21327</v>
-      </c>
-      <c r="C11" s="19">
-        <v>10610</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12">
-        <f>VLOOKUP(H11,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010131</v>
+      <c r="E11" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="26" t="s">
+      <c r="G11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12">
+        <f>VLOOKUP(I11,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010131</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N11" s="25">
         <v>44168</v>
@@ -2057,45 +1885,45 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10">
+        <v>25241</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11544</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="10">
-        <v>25241</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11544</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12">
-        <f>VLOOKUP(H12,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
-        <v>71010102</v>
+      <c r="E12" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12">
+        <f>VLOOKUP(I12,'[1]FILTER FOR DATA'!$E$183:$F$300,2,0)</f>
+        <v>71010102</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N12" s="25">
         <v>44901</v>
@@ -2110,44 +1938,44 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10">
+        <v>25241</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11544</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="10">
-        <v>25241</v>
-      </c>
-      <c r="C13" s="10">
-        <v>11544</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12">
-        <v>71010102</v>
+      <c r="E13" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="G13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N13" s="25">
         <v>44901</v>
@@ -2160,44 +1988,44 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10">
+        <v>25090</v>
+      </c>
+      <c r="B14" s="10">
+        <v>11536</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="10">
-        <v>25090</v>
-      </c>
-      <c r="C14" s="10">
-        <v>11536</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="12">
-        <v>71010102</v>
+      <c r="E14" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N14" s="25">
         <v>44868</v>
@@ -2210,44 +2038,44 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="19">
+        <v>24490</v>
+      </c>
+      <c r="B15" s="19">
+        <v>11353</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B15" s="19">
-        <v>24490</v>
-      </c>
-      <c r="C15" s="19">
-        <v>11353</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="12">
-        <v>71010132</v>
+      <c r="E15" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N15" s="25">
         <v>44799</v>
@@ -2260,44 +2088,44 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19">
+        <v>23044</v>
+      </c>
+      <c r="B16" s="19">
+        <v>3156</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="19">
-        <v>23044</v>
-      </c>
-      <c r="C16" s="19">
-        <v>3156</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="12">
-        <v>71010256</v>
+      <c r="E16" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="14" t="s">
+      <c r="G16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12">
+        <v>71010256</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N16" s="25">
         <v>45028</v>
@@ -2310,44 +2138,44 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19">
+        <v>24481</v>
+      </c>
+      <c r="B17" s="19">
+        <v>11344</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="19">
-        <v>24481</v>
-      </c>
-      <c r="C17" s="19">
-        <v>11344</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="12">
-        <v>71010209</v>
+      <c r="E17" s="22" t="s">
+        <v>68</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="14" t="s">
+      <c r="G17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="12">
+        <v>71010209</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N17" s="25">
         <v>44798</v>
@@ -2360,44 +2188,44 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="19">
+        <v>80071</v>
+      </c>
+      <c r="B18" s="19">
+        <v>10010</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="19">
-        <v>80071</v>
-      </c>
-      <c r="C18" s="19">
-        <v>10010</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="12">
-        <v>71010132</v>
+      <c r="E18" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N18" s="25">
         <v>43740</v>
@@ -2410,44 +2238,44 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="24.75">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19">
+        <v>80094</v>
+      </c>
+      <c r="B19" s="19">
+        <v>10023</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="19">
-        <v>80094</v>
-      </c>
-      <c r="C19" s="19">
-        <v>10023</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="12">
-        <v>71010132</v>
+      <c r="E19" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N19" s="25">
         <v>43740</v>
@@ -2460,44 +2288,44 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="19">
+        <v>21216</v>
+      </c>
+      <c r="B20" s="19">
+        <v>10380</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="19">
-        <v>21216</v>
-      </c>
-      <c r="C20" s="19">
-        <v>10380</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12">
-        <v>71010132</v>
+      <c r="E20" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="14" t="s">
+      <c r="G20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="N20" s="25">
         <v>44137</v>
@@ -2510,44 +2338,44 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10">
+        <v>25103</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3183</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="10">
-        <v>25103</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3183</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="12">
-        <v>71010102</v>
+      <c r="E21" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="14" t="s">
+      <c r="G21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N21" s="25">
         <v>44865</v>
@@ -2560,44 +2388,44 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="19">
+        <v>21741</v>
+      </c>
+      <c r="B22" s="19">
+        <v>3113</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="19">
-        <v>21741</v>
-      </c>
-      <c r="C22" s="19">
-        <v>3113</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="12">
-        <v>71010132</v>
+      <c r="E22" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="G22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J22" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="N22" s="25">
         <v>44200</v>
@@ -2610,44 +2438,44 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10">
+        <v>25081</v>
+      </c>
+      <c r="B23" s="10">
+        <v>11528</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="10">
-        <v>25081</v>
-      </c>
-      <c r="C23" s="10">
-        <v>11528</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="12">
-        <v>71010102</v>
+      <c r="E23" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N23" s="25">
         <v>44868</v>
@@ -2660,44 +2488,44 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="19">
+        <v>80021</v>
+      </c>
+      <c r="B24" s="19">
+        <v>3005</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="19">
-        <v>80021</v>
-      </c>
-      <c r="C24" s="19">
-        <v>3005</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="12">
-        <v>71010102</v>
+      <c r="E24" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="G24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N24" s="25" t="s">
         <v>28</v>
@@ -2710,44 +2538,44 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10">
+        <v>25077</v>
+      </c>
+      <c r="B25" s="10">
+        <v>11524</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="10">
-        <v>25077</v>
-      </c>
-      <c r="C25" s="10">
-        <v>11524</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="12">
-        <v>71010102</v>
+      <c r="E25" s="22" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="14" t="s">
+      <c r="G25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="J25" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="N25" s="25">
         <v>44867</v>
@@ -2760,44 +2588,44 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="19">
+        <v>21236</v>
+      </c>
+      <c r="B26" s="19">
+        <v>10405</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="19">
-        <v>21236</v>
-      </c>
-      <c r="C26" s="19">
-        <v>10405</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="12">
-        <v>71010132</v>
+      <c r="E26" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="G26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N26" s="25">
         <v>44137</v>
@@ -2810,44 +2638,44 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="19">
+        <v>80100</v>
+      </c>
+      <c r="B27" s="19">
+        <v>10029</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="19">
-        <v>80100</v>
-      </c>
-      <c r="C27" s="19">
-        <v>10029</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="12">
-        <v>71010102</v>
+      <c r="E27" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="G27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N27" s="25">
         <v>43740</v>
@@ -2860,44 +2688,44 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="24.75">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="19">
+        <v>21340</v>
+      </c>
+      <c r="B28" s="19">
+        <v>10479</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" s="19">
-        <v>21340</v>
-      </c>
-      <c r="C28" s="19">
-        <v>10479</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="12">
-        <v>71010102</v>
+      <c r="E28" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="G28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N28" s="25">
         <v>44144</v>
@@ -2910,44 +2738,44 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="19">
+        <v>21661</v>
+      </c>
+      <c r="B29" s="19">
+        <v>10728</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B29" s="19">
-        <v>21661</v>
-      </c>
-      <c r="C29" s="19">
-        <v>10728</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="12">
-        <v>71010132</v>
+      <c r="E29" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="G29" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="N29" s="25">
         <v>44221</v>
@@ -2960,44 +2788,44 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="19">
+        <v>80360</v>
+      </c>
+      <c r="B30" s="19">
+        <v>10268</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B30" s="19">
-        <v>80360</v>
-      </c>
-      <c r="C30" s="19">
-        <v>10268</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="12">
-        <v>71010256</v>
+      <c r="E30" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="12">
+        <v>71010256</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N30" s="25">
         <v>44085</v>
@@ -3010,44 +2838,44 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="19">
+        <v>22062</v>
+      </c>
+      <c r="B31" s="19">
+        <v>10814</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="19">
-        <v>22062</v>
-      </c>
-      <c r="C31" s="19">
-        <v>10814</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="12">
-        <v>71010132</v>
+      <c r="E31" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="14" t="s">
+      <c r="G31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N31" s="25">
         <v>44333</v>
@@ -3060,44 +2888,44 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="9" t="s">
-        <v>24</v>
+      <c r="A32" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>25</v>
+      <c r="C32" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="12">
-        <v>71010102</v>
+      <c r="E32" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="G32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J32" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N32" s="25" t="s">
         <v>28</v>
@@ -3110,44 +2938,44 @@
       </c>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19">
+        <v>23746</v>
+      </c>
+      <c r="B33" s="19">
+        <v>11106</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" s="19">
-        <v>23746</v>
-      </c>
-      <c r="C33" s="19">
-        <v>11106</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="12">
-        <v>71010132</v>
+      <c r="E33" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="14" t="s">
+      <c r="G33" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="12">
+        <v>71010132</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N33" s="25">
         <v>44705</v>
@@ -3160,44 +2988,44 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="19">
+        <v>24952</v>
+      </c>
+      <c r="B34" s="19">
+        <v>11505</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="B34" s="19">
-        <v>24952</v>
-      </c>
-      <c r="C34" s="19">
-        <v>11505</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="12">
-        <v>71010209</v>
+      <c r="E34" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="12">
+        <v>71010209</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="N34" s="25">
         <v>44851</v>
@@ -3210,44 +3038,44 @@
       </c>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="19">
+        <v>80062</v>
+      </c>
+      <c r="B35" s="19">
+        <v>3176</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B35" s="19">
-        <v>80062</v>
-      </c>
-      <c r="C35" s="19">
-        <v>3176</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="12">
-        <v>71010255</v>
+      <c r="E35" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="29" t="s">
+      <c r="G35" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="12">
+        <v>71010255</v>
+      </c>
+      <c r="I35" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="J35" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N35" s="25">
         <v>43740</v>
@@ -3260,44 +3088,44 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="19">
+        <v>80023</v>
+      </c>
+      <c r="B36" s="19">
+        <v>3006</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="19">
-        <v>80023</v>
-      </c>
-      <c r="C36" s="19">
-        <v>3006</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="12">
-        <v>71010255</v>
+      <c r="E36" s="22" t="s">
+        <v>121</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H36" s="29" t="s">
+      <c r="G36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="12">
+        <v>71010255</v>
+      </c>
+      <c r="I36" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J36" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N36" s="25">
         <v>43726</v>
@@ -3310,44 +3138,44 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="19">
+        <v>80013</v>
+      </c>
+      <c r="B37" s="19">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" s="19">
-        <v>80013</v>
-      </c>
-      <c r="C37" s="19">
-        <v>5</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="12">
-        <v>71010204</v>
+      <c r="E37" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="G37" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="14" t="s">
+      <c r="G37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="12">
+        <v>71010204</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J37" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="N37" s="25" t="s">
         <v>28</v>
@@ -3360,44 +3188,44 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="19">
+        <v>24880</v>
+      </c>
+      <c r="B38" s="19">
+        <v>11484</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B38" s="19">
-        <v>24880</v>
-      </c>
-      <c r="C38" s="19">
-        <v>11484</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="12">
-        <v>71010102</v>
+      <c r="E38" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="G38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="12">
+        <v>71010102</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>15</v>
-      </c>
       <c r="J38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="N38" s="25">
         <v>44839</v>
@@ -3410,115 +3238,39 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B5:B8 A2:B4">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:P8">
-    <cfRule type="cellIs" dxfId="38" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="85" operator="equal">
       <formula>$RY$6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P8">
-    <cfRule type="cellIs" dxfId="37" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="87" operator="equal">
       <formula>$RN$77</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="88" operator="equal">
       <formula>$RR$194</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="89" operator="equal">
       <formula>$RS$215</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="90" operator="equal">
       <formula>$RR$76</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="91" operator="equal">
       <formula>$RR$89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="92" operator="equal">
       <formula>$RR$48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="93" operator="equal">
       <formula>$RM$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="94" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:P12">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
-      <formula>$RN$77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
-      <formula>$RR$194</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>$RS$215</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>$RR$76</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>$RR$89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>$RR$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
-      <formula>$RM$9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
-      <formula>$RQ$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:P12">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+  <conditionalFormatting sqref="A9:P38">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>$RY$4</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B12">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:P24">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
-      <formula>$RN$77</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>$RR$194</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>$RS$215</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>$RR$76</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>$RR$89</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
-      <formula>$RR$48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
-      <formula>$RM$9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
-      <formula>$RQ$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:P24">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>$RY$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B24">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:P38">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>$RN$77</formula>
     </cfRule>
@@ -3544,12 +3296,12 @@
       <formula>$RQ$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:P38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$RY$4</formula>
+  <conditionalFormatting sqref="A1:A4 C2:C4">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B38">
+  <conditionalFormatting sqref="A5:A38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
